--- a/가구특성별_소비지출구간별_가구분포.xlsx
+++ b/가구특성별_소비지출구간별_가구분포.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\code\산업ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F97A305-AD3A-439A-B852-FA56E83191BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF02AAE-7863-4B7D-ADC2-6D8F1F7E345B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,9 +200,6 @@
     <t>○ 통계표명</t>
   </si>
   <si>
-    <t>가구특성별 소비지출구간별 가구분포</t>
-  </si>
-  <si>
     <t>○ 조회기간</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
   </si>
   <si>
     <t>○ 통계표URL</t>
-  </si>
-  <si>
-    <t>https://kosis.kr/statHtml/statHtml.do?orgId=101&amp;tblId=DT_1HDAAB08&amp;conn_path=I3</t>
   </si>
   <si>
     <t/>
@@ -306,7 +300,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023년</t>
+    <t>가구특성별 소비지출구간별 가구분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kosis.kr/statHtml/statHtml.do?orgId=101&amp;tblId=DT_1HDAAB08&amp;conn_path=I3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021년</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,9 +317,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -330,6 +332,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -380,12 +390,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,12 +410,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -717,7 +734,7 @@
   <dimension ref="A1:D323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D323"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -730,10 +747,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -5254,9 +5271,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="34.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
@@ -5271,124 +5293,124 @@
         <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -5396,67 +5418,70 @@
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{DA325FD1-70E8-41AF-A2A1-9A68088C5E2E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>